--- a/data/trans_camb/P55_3-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P55_3-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-11,32</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-3,53</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-7,45</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-10.35300894532513</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-3.638239045664959</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-7.015256441782435</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-29,53; -2,76</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-12,3; 4,74</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-15,6; -1,83</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-27.13904088756657</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-12.21044756106544</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-14.82819977433034</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-11,32%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,67%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-7,59%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-2.483408178944241</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.893134134657191</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-1.64905461671212</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-29,53; -2,76</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-12,77; 4,93</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-15,82; -1,86</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.1035300894532513</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.03767852831514965</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.07135381522774165</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>10,31</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,49</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,11</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.2713904088756657</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.1264403201113982</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1500804749712769</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,83; 43,97</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-13,59; 10,6</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,41; 26,34</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>-0.0248340817894424</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.04031796147644718</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>-0.01730471743613519</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>12,66%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,67%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>6,01%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>9.97786685328319</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.118848883604374</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>4.553797397897608</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-6,31; 83,98</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-14,24; 12,77</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-5,76; 40,2</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.570312198366489</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-15.72356322624614</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-6.002399910622928</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-7,54</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,53</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-2,44</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>43.21406864499036</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>10.75627220998443</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>25.24907916113735</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-20,5; 5,38</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-5,39; 9,0</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-9,58; 5,15</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.1223048763426022</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.02386609476002737</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.05364048428741878</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-8,27%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,65%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-2,65%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.06005093335292268</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.1694055640676068</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.06656808408857769</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-21,47; 6,28</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-5,65; 10,21</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-10,03; 5,58</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.7746786193717007</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.1300259598428804</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.3735704369382341</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>6,09</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>3,36</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-9.601941416476212</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.462528225601034</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-3.372112040699304</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-6,28; 6,83</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-3,74; 16,45</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-2,31; 10,33</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-22.81156300764032</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-6.100205612118992</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-11.13761950669779</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>0,41%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>7,39%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>3,8%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>4.057059769276384</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>9.184924815226127</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>4.367718946413769</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-6,43; 7,48</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-4,26; 21,27</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-2,54; 12,19</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.1047823151618733</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.01583639339286886</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.03662972811967402</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-8,63</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>4,1</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-3,41</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.2479375795001906</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.06381413885973336</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.1179822792978608</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-20,9; 2,09</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-13,09; 20,63</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-13,07; 7,07</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.04489767302529402</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.1042349346896233</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.04815305611456634</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-9,46%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>5,48%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-4,04%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.5916672436514392</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>6.151320984547959</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>3.479204970904071</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-22,01; 2,23</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-15,58; 33,47</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-14,75; 8,75</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-5.883841811491245</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-3.859659036136624</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-2.190959692269704</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-15,18</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-9,72</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>7.160745377524684</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>16.06303020657727</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>10.30252662218328</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-8,88; 11,4</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-41,53; 4,01</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-29,2; 2,44</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.00624389904999966</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.07439735321688266</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.03929702182874611</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>0,19%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-17,74%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-10,85%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.06016276551514328</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.04141200383059938</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.0237688098687637</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-8,91; 13,14</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-47,47; 4,34</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-32,95; 2,66</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.07920428149311289</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.2181196813842</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.1221802582422409</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +987,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>-2,26</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>-1,99</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>-2,15</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>-8.498257938168241</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>5.887950169399336</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>-2.536500754422222</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-7,68; 4,79</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-9,15; 3,0</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-6,35; 2,72</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-20.45918549051972</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-10.5034130766184</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-11.72750389804584</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>-2,46%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>-2,27%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>-2,4%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>1.835036665359176</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>23.68257487026032</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>7.925018873693046</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-8,14; 5,5</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-10,22; 3,46</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-6,96; 3,15</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>-0.09288614467108026</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.07979930826150435</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>-0.03020060809503542</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.215828205160872</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.132464078460493</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.1353463272931293</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0.02130964160604789</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0.3740917636917688</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.1017399802225947</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>-0.08696413730665542</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>-13.23518575311549</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>-8.667132033423808</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-10.79878521986162</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-37.51239709217467</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-26.00347316968651</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>10.10785920714138</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>4.817661022736627</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>2.741719365594336</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>-0.0009184879494638631</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>-0.1525045435091557</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>-0.09610446789719469</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.1092159170248118</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.4140379574341749</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.2753069862353042</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0.1161933243472934</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0.05492729856726786</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0.03146558329134858</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>-2.586600915058279</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>-1.379645088299086</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>-1.983554835462908</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-8.263482826333224</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-7.509710210423156</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-6.003643936640271</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>4.076540217688289</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>3.651091936905206</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>2.758865365329249</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>-0.02810727851515868</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>-0.01574316628641916</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>-0.02209430043773551</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.08764434685766649</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.0868325924918343</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.06564820274214106</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.04697808511436767</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.04118677082275841</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.0314680175338102</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1224,14 +1303,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
